--- a/Final Submission/Design/All Test Plan.xlsx
+++ b/Final Submission/Design/All Test Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46599CF6-7BF5-4F73-969F-CFFADA73DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E0F9E-55E1-477A-985F-7F5F081E733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="151">
   <si>
     <t>Test Case Details</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Prerequisites:</t>
-  </si>
-  <si>
-    <t>Desktop environment with JRE 14 with JUnit 5.4</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -438,9 +435,6 @@
     <t>Review method calculateReturned</t>
   </si>
   <si>
-    <t>Desktop environment with JRE 15 with JUnit 5</t>
-  </si>
-  <si>
     <t>12345asdf</t>
   </si>
   <si>
@@ -481,6 +475,9 @@
   </si>
   <si>
     <t>6.1 Test Case 21</t>
+  </si>
+  <si>
+    <t>Desktop environment with JRE 11 with JUnit 5</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1011,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1021,6 +1111,129 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,123 +1254,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1166,126 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1575,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H686"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K508" sqref="K508:L508"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N275" sqref="N275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1592,34 +1589,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="45" x14ac:dyDescent="0.75">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="4" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1631,11 +1628,11 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
+      <c r="E8" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1655,13 +1652,13 @@
       <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
+      <c r="C11" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
@@ -1676,32 +1673,32 @@
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
+      <c r="C16" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -1715,59 +1712,59 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="63">
+      <c r="C19" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66">
         <v>123456789</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1775,18 +1772,18 @@
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="75"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1794,62 +1791,62 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="44"/>
+      <c r="F26" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="75"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="B29" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="120"/>
+      <c r="E31" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1869,13 +1866,13 @@
       <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
+      <c r="C34" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="81"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
@@ -1890,32 +1887,32 @@
         <v>11</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="107"/>
+      <c r="C39" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -1929,139 +1926,139 @@
       <c r="B41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="89"/>
+      <c r="E41" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="97"/>
-      <c r="G41" s="98"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>1</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="113"/>
-      <c r="E42" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="117"/>
+      <c r="C42" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="89"/>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18">
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="75"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="119"/>
-      <c r="G54" s="120"/>
+      <c r="E54" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
@@ -2081,13 +2078,13 @@
       <c r="B57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="110"/>
+      <c r="C57" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
@@ -2102,32 +2099,32 @@
         <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="54"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="84"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>1</v>
       </c>
-      <c r="C62" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="107"/>
+      <c r="C62" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="87"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
@@ -2141,149 +2138,149 @@
       <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="89"/>
+      <c r="E64" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="97"/>
-      <c r="G64" s="98"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="92"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>1</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="113"/>
-      <c r="E65" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="117"/>
+      <c r="C65" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="65"/>
+      <c r="E65" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="67"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="F69" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="89"/>
+      <c r="G69" s="73"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="17">
         <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F70" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="75"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="18">
         <v>2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F71" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18">
         <v>3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="75"/>
+    </row>
+    <row r="75" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="98"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="44"/>
-    </row>
-    <row r="75" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="81"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="95"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" s="119"/>
-      <c r="G79" s="120"/>
+      <c r="E79" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
@@ -2303,13 +2300,13 @@
       <c r="B82" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="110"/>
+      <c r="C82" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="81"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
@@ -2324,32 +2321,32 @@
         <v>11</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="84"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C87" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="107"/>
+      <c r="C87" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="87"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
@@ -2363,139 +2360,139 @@
       <c r="B89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="89"/>
+      <c r="E89" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="99"/>
-      <c r="E89" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="97"/>
-      <c r="G89" s="98"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="92"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
         <v>1</v>
       </c>
-      <c r="C90" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="113"/>
-      <c r="E90" s="63">
+      <c r="C90" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="65"/>
+      <c r="E90" s="66">
         <v>188831</v>
       </c>
-      <c r="F90" s="116"/>
-      <c r="G90" s="117"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="68"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C92" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="71"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="D94" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="E94" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="F94" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="89"/>
+      <c r="G94" s="73"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="17">
         <v>1</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F95" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="75"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="18">
         <v>2</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F96" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="75"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="18">
         <v>3</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" s="44"/>
+      <c r="F97" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="75"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="78"/>
+      <c r="B99" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="95"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="119"/>
-      <c r="G101" s="120"/>
+      <c r="E101" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="77"/>
+      <c r="G101" s="78"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
@@ -2515,13 +2512,13 @@
       <c r="B104" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="110"/>
+      <c r="C104" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="81"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
@@ -2536,32 +2533,32 @@
         <v>11</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="52" t="s">
+      <c r="C108" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="54"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="84"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="8">
         <v>1</v>
       </c>
-      <c r="C109" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="106"/>
-      <c r="G109" s="107"/>
+      <c r="C109" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="87"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
@@ -2575,149 +2572,149 @@
       <c r="B111" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="89"/>
+      <c r="E111" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="99"/>
-      <c r="E111" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="97"/>
-      <c r="G111" s="98"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="92"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10">
         <v>1</v>
       </c>
-      <c r="C112" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="113"/>
-      <c r="E112" s="63">
+      <c r="C112" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="65"/>
+      <c r="E112" s="66">
         <v>1234567</v>
       </c>
-      <c r="F112" s="116"/>
-      <c r="G112" s="117"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="68"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C114" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="71"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="D116" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="E116" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="F116" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F116" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="89"/>
+      <c r="G116" s="73"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="17">
         <v>1</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F117" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="75"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="18">
         <v>2</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F118" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F118" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="75"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="18">
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="75"/>
+    </row>
+    <row r="122" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="97"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="97"/>
+      <c r="G122" s="98"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E119" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" s="44"/>
-    </row>
-    <row r="122" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B122" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="81"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="78"/>
+      <c r="C124" s="94"/>
+      <c r="D124" s="94"/>
+      <c r="E124" s="94"/>
+      <c r="F124" s="94"/>
+      <c r="G124" s="95"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="F126" s="119"/>
-      <c r="G126" s="120"/>
+      <c r="E126" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126" s="77"/>
+      <c r="G126" s="78"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
@@ -2737,13 +2734,13 @@
       <c r="B129" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="D129" s="109"/>
-      <c r="E129" s="109"/>
-      <c r="F129" s="109"/>
-      <c r="G129" s="110"/>
+      <c r="C129" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="81"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="19" t="s">
@@ -2758,32 +2755,32 @@
         <v>11</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="52" t="s">
+      <c r="C133" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="54"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="84"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>1</v>
       </c>
-      <c r="C134" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D134" s="106"/>
-      <c r="E134" s="106"/>
-      <c r="F134" s="106"/>
-      <c r="G134" s="107"/>
+      <c r="C134" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="86"/>
+      <c r="G134" s="87"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
@@ -2797,139 +2794,139 @@
       <c r="B136" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="89"/>
+      <c r="E136" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="99"/>
-      <c r="E136" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="97"/>
-      <c r="G136" s="98"/>
+      <c r="F136" s="91"/>
+      <c r="G136" s="92"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="10">
         <v>1</v>
       </c>
-      <c r="C137" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="113"/>
-      <c r="E137" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F137" s="116"/>
-      <c r="G137" s="117"/>
+      <c r="C137" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="65"/>
+      <c r="E137" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F137" s="67"/>
+      <c r="G137" s="68"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C139" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="71"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="D141" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="E141" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E141" s="13" t="s">
+      <c r="F141" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F141" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G141" s="89"/>
+      <c r="G141" s="73"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="17">
         <v>1</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F142" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F142" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="75"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="18">
         <v>2</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E143" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F143" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="75"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="18">
         <v>3</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F144" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F144" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="75"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="78"/>
+      <c r="B147" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="94"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="94"/>
+      <c r="F147" s="94"/>
+      <c r="G147" s="95"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="F149" s="119"/>
-      <c r="G149" s="120"/>
+      <c r="E149" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F149" s="77"/>
+      <c r="G149" s="78"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
@@ -2949,13 +2946,13 @@
       <c r="B152" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="D152" s="109"/>
-      <c r="E152" s="109"/>
-      <c r="F152" s="109"/>
-      <c r="G152" s="110"/>
+      <c r="C152" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="81"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="19" t="s">
@@ -2970,32 +2967,32 @@
         <v>11</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="53"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="54"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="84"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="8">
         <v>1</v>
       </c>
-      <c r="C157" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D157" s="106"/>
-      <c r="E157" s="106"/>
-      <c r="F157" s="106"/>
-      <c r="G157" s="107"/>
+      <c r="C157" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D157" s="86"/>
+      <c r="E157" s="86"/>
+      <c r="F157" s="86"/>
+      <c r="G157" s="87"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
@@ -3009,139 +3006,139 @@
       <c r="B159" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="56" t="s">
+      <c r="C159" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="89"/>
+      <c r="E159" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="99"/>
-      <c r="E159" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="97"/>
-      <c r="G159" s="98"/>
+      <c r="F159" s="91"/>
+      <c r="G159" s="92"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
         <v>1</v>
       </c>
-      <c r="C160" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="113"/>
-      <c r="E160" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F160" s="116"/>
-      <c r="G160" s="117"/>
+      <c r="C160" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="65"/>
+      <c r="E160" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="67"/>
+      <c r="G160" s="68"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D162" s="68"/>
-      <c r="E162" s="68"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C162" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="71"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="D164" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="E164" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="F164" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F164" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" s="89"/>
+      <c r="G164" s="73"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="17">
         <v>1</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F165" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G165" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F165" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="75"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="18">
         <v>2</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E166" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F166" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F166" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="75"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="18">
         <v>3</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F167" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G167" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F167" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="75"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="78"/>
+      <c r="B170" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" s="94"/>
+      <c r="D170" s="94"/>
+      <c r="E170" s="94"/>
+      <c r="F170" s="94"/>
+      <c r="G170" s="95"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="F172" s="119"/>
-      <c r="G172" s="120"/>
+      <c r="E172" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F172" s="77"/>
+      <c r="G172" s="78"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
@@ -3161,13 +3158,13 @@
       <c r="B175" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="D175" s="109"/>
-      <c r="E175" s="109"/>
-      <c r="F175" s="109"/>
-      <c r="G175" s="110"/>
+      <c r="C175" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="80"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
+      <c r="G175" s="81"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="19" t="s">
@@ -3182,32 +3179,32 @@
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="53"/>
-      <c r="G179" s="54"/>
+      <c r="D179" s="83"/>
+      <c r="E179" s="83"/>
+      <c r="F179" s="83"/>
+      <c r="G179" s="84"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="8">
         <v>1</v>
       </c>
-      <c r="C180" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D180" s="106"/>
-      <c r="E180" s="106"/>
-      <c r="F180" s="106"/>
-      <c r="G180" s="107"/>
+      <c r="C180" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D180" s="86"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="86"/>
+      <c r="G180" s="87"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
@@ -3221,149 +3218,149 @@
       <c r="B182" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="56" t="s">
+      <c r="C182" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="89"/>
+      <c r="E182" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D182" s="99"/>
-      <c r="E182" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="97"/>
-      <c r="G182" s="98"/>
+      <c r="F182" s="91"/>
+      <c r="G182" s="92"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
         <v>1</v>
       </c>
-      <c r="C183" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="113"/>
-      <c r="E183" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="F183" s="116"/>
-      <c r="G183" s="117"/>
+      <c r="C183" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="65"/>
+      <c r="E183" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F183" s="67"/>
+      <c r="G183" s="68"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D185" s="68"/>
-      <c r="E185" s="68"/>
-      <c r="F185" s="68"/>
-      <c r="G185" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C185" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" s="70"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="71"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="D187" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="E187" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="F187" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F187" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G187" s="89"/>
+      <c r="G187" s="73"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="17">
         <v>1</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F188" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G188" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F188" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="75"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="18">
         <v>2</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E189" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G189" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F189" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="75"/>
     </row>
     <row r="190" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B190" s="22">
         <v>3</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D190" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="63"/>
+    </row>
+    <row r="193" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B193" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193" s="97"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="97"/>
+      <c r="F193" s="97"/>
+      <c r="G193" s="98"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E190" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F190" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G190" s="61"/>
-    </row>
-    <row r="193" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B193" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C193" s="80"/>
-      <c r="D193" s="80"/>
-      <c r="E193" s="80"/>
-      <c r="F193" s="80"/>
-      <c r="G193" s="81"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C195" s="77"/>
-      <c r="D195" s="77"/>
-      <c r="E195" s="77"/>
-      <c r="F195" s="77"/>
-      <c r="G195" s="78"/>
+      <c r="C195" s="94"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="94"/>
+      <c r="F195" s="94"/>
+      <c r="G195" s="95"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E197" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="F197" s="119"/>
-      <c r="G197" s="120"/>
+      <c r="E197" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F197" s="77"/>
+      <c r="G197" s="78"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
@@ -3383,13 +3380,13 @@
       <c r="B200" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C200" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D200" s="109"/>
-      <c r="E200" s="109"/>
-      <c r="F200" s="109"/>
-      <c r="G200" s="110"/>
+      <c r="C200" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D200" s="80"/>
+      <c r="E200" s="80"/>
+      <c r="F200" s="80"/>
+      <c r="G200" s="81"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="19" t="s">
@@ -3404,32 +3401,32 @@
         <v>11</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C204" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="54"/>
+      <c r="D204" s="83"/>
+      <c r="E204" s="83"/>
+      <c r="F204" s="83"/>
+      <c r="G204" s="84"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="8">
         <v>1</v>
       </c>
-      <c r="C205" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="106"/>
-      <c r="E205" s="106"/>
-      <c r="F205" s="106"/>
-      <c r="G205" s="107"/>
+      <c r="C205" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D205" s="86"/>
+      <c r="E205" s="86"/>
+      <c r="F205" s="86"/>
+      <c r="G205" s="87"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
@@ -3443,139 +3440,139 @@
       <c r="B207" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="56" t="s">
+      <c r="C207" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="89"/>
+      <c r="E207" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D207" s="99"/>
-      <c r="E207" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" s="97"/>
-      <c r="G207" s="98"/>
+      <c r="F207" s="91"/>
+      <c r="G207" s="92"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="10">
         <v>1</v>
       </c>
-      <c r="C208" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D208" s="113"/>
-      <c r="E208" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="F208" s="116"/>
-      <c r="G208" s="117"/>
+      <c r="C208" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D208" s="65"/>
+      <c r="E208" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F208" s="67"/>
+      <c r="G208" s="68"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C210" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D210" s="68"/>
-      <c r="E210" s="68"/>
-      <c r="F210" s="68"/>
-      <c r="G210" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C210" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D210" s="70"/>
+      <c r="E210" s="70"/>
+      <c r="F210" s="70"/>
+      <c r="G210" s="71"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="D212" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="E212" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E212" s="13" t="s">
+      <c r="F212" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F212" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G212" s="89"/>
+      <c r="G212" s="73"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="17">
         <v>1</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F213" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G213" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F213" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" s="75"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="18">
         <v>2</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F214" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G214" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F214" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G214" s="75"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="18">
         <v>3</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F215" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G215" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F215" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" s="75"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C218" s="77"/>
-      <c r="D218" s="77"/>
-      <c r="E218" s="77"/>
-      <c r="F218" s="77"/>
-      <c r="G218" s="78"/>
+      <c r="B218" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218" s="94"/>
+      <c r="D218" s="94"/>
+      <c r="E218" s="94"/>
+      <c r="F218" s="94"/>
+      <c r="G218" s="95"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E220" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="F220" s="119"/>
-      <c r="G220" s="120"/>
+      <c r="E220" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F220" s="77"/>
+      <c r="G220" s="78"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
@@ -3597,13 +3594,13 @@
       <c r="B223" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C223" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D223" s="109"/>
-      <c r="E223" s="109"/>
-      <c r="F223" s="109"/>
-      <c r="G223" s="110"/>
+      <c r="C223" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D223" s="80"/>
+      <c r="E223" s="80"/>
+      <c r="F223" s="80"/>
+      <c r="G223" s="81"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="19" t="s">
@@ -3618,32 +3615,32 @@
         <v>11</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C227" s="52" t="s">
+      <c r="C227" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D227" s="53"/>
-      <c r="E227" s="53"/>
-      <c r="F227" s="53"/>
-      <c r="G227" s="54"/>
+      <c r="D227" s="83"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="84"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="8">
         <v>1</v>
       </c>
-      <c r="C228" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D228" s="106"/>
-      <c r="E228" s="106"/>
-      <c r="F228" s="106"/>
-      <c r="G228" s="107"/>
+      <c r="C228" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D228" s="86"/>
+      <c r="E228" s="86"/>
+      <c r="F228" s="86"/>
+      <c r="G228" s="87"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
@@ -3657,139 +3654,139 @@
       <c r="B230" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="56" t="s">
+      <c r="C230" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="89"/>
+      <c r="E230" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D230" s="99"/>
-      <c r="E230" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F230" s="97"/>
-      <c r="G230" s="98"/>
+      <c r="F230" s="91"/>
+      <c r="G230" s="92"/>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="10">
         <v>1</v>
       </c>
-      <c r="C231" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D231" s="113"/>
-      <c r="E231" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F231" s="116"/>
-      <c r="G231" s="117"/>
+      <c r="C231" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D231" s="65"/>
+      <c r="E231" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F231" s="67"/>
+      <c r="G231" s="68"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D233" s="68"/>
-      <c r="E233" s="68"/>
-      <c r="F233" s="68"/>
-      <c r="G233" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C233" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D233" s="70"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
+      <c r="G233" s="71"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="D235" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="E235" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E235" s="13" t="s">
+      <c r="F235" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F235" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G235" s="89"/>
+      <c r="G235" s="73"/>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="17">
         <v>1</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F236" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G236" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F236" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G236" s="75"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="18">
         <v>2</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F237" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G237" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F237" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G237" s="75"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="18">
         <v>3</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F238" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G238" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F238" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G238" s="75"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C241" s="77"/>
-      <c r="D241" s="77"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="77"/>
-      <c r="G241" s="78"/>
+      <c r="B241" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C241" s="94"/>
+      <c r="D241" s="94"/>
+      <c r="E241" s="94"/>
+      <c r="F241" s="94"/>
+      <c r="G241" s="95"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E243" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="F243" s="119"/>
-      <c r="G243" s="120"/>
+      <c r="E243" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F243" s="77"/>
+      <c r="G243" s="78"/>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
@@ -3809,13 +3806,13 @@
       <c r="B246" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D246" s="109"/>
-      <c r="E246" s="109"/>
-      <c r="F246" s="109"/>
-      <c r="G246" s="110"/>
+      <c r="C246" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D246" s="80"/>
+      <c r="E246" s="80"/>
+      <c r="F246" s="80"/>
+      <c r="G246" s="81"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="19" t="s">
@@ -3830,32 +3827,32 @@
         <v>11</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C250" s="52" t="s">
+      <c r="C250" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D250" s="53"/>
-      <c r="E250" s="53"/>
-      <c r="F250" s="53"/>
-      <c r="G250" s="54"/>
+      <c r="D250" s="83"/>
+      <c r="E250" s="83"/>
+      <c r="F250" s="83"/>
+      <c r="G250" s="84"/>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="8">
         <v>1</v>
       </c>
-      <c r="C251" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D251" s="106"/>
-      <c r="E251" s="106"/>
-      <c r="F251" s="106"/>
-      <c r="G251" s="107"/>
+      <c r="C251" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D251" s="86"/>
+      <c r="E251" s="86"/>
+      <c r="F251" s="86"/>
+      <c r="G251" s="87"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
@@ -3869,149 +3866,149 @@
       <c r="B253" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C253" s="56" t="s">
+      <c r="C253" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="89"/>
+      <c r="E253" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="99"/>
-      <c r="E253" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="97"/>
-      <c r="G253" s="98"/>
+      <c r="F253" s="91"/>
+      <c r="G253" s="92"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="10">
         <v>1</v>
       </c>
-      <c r="C254" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D254" s="113"/>
-      <c r="E254" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F254" s="116"/>
-      <c r="G254" s="117"/>
+      <c r="C254" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D254" s="65"/>
+      <c r="E254" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F254" s="67"/>
+      <c r="G254" s="68"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C256" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D256" s="68"/>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C256" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D256" s="70"/>
+      <c r="E256" s="70"/>
+      <c r="F256" s="70"/>
+      <c r="G256" s="71"/>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="D258" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D258" s="14" t="s">
+      <c r="E258" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E258" s="13" t="s">
+      <c r="F258" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F258" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G258" s="89"/>
+      <c r="G258" s="73"/>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="17">
         <v>1</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F259" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G259" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F259" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G259" s="75"/>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="18">
         <v>2</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F260" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G260" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F260" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G260" s="75"/>
     </row>
     <row r="261" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B261" s="22">
         <v>3</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D261" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E261" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G261" s="63"/>
+    </row>
+    <row r="264" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B264" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E261" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F261" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G261" s="61"/>
-    </row>
-    <row r="264" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B264" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C264" s="80"/>
-      <c r="D264" s="80"/>
-      <c r="E264" s="80"/>
-      <c r="F264" s="80"/>
-      <c r="G264" s="81"/>
+      <c r="C264" s="97"/>
+      <c r="D264" s="97"/>
+      <c r="E264" s="97"/>
+      <c r="F264" s="97"/>
+      <c r="G264" s="98"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B266" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C266" s="77"/>
-      <c r="D266" s="77"/>
-      <c r="E266" s="77"/>
-      <c r="F266" s="77"/>
-      <c r="G266" s="78"/>
+      <c r="B266" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C266" s="94"/>
+      <c r="D266" s="94"/>
+      <c r="E266" s="94"/>
+      <c r="F266" s="94"/>
+      <c r="G266" s="95"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="F268" s="119"/>
-      <c r="G268" s="120"/>
+      <c r="E268" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F268" s="77"/>
+      <c r="G268" s="78"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
@@ -4031,13 +4028,13 @@
       <c r="B271" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D271" s="109"/>
-      <c r="E271" s="109"/>
-      <c r="F271" s="109"/>
-      <c r="G271" s="110"/>
+      <c r="C271" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D271" s="80"/>
+      <c r="E271" s="80"/>
+      <c r="F271" s="80"/>
+      <c r="G271" s="81"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="19" t="s">
@@ -4052,32 +4049,32 @@
         <v>11</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C275" s="52" t="s">
+      <c r="C275" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D275" s="53"/>
-      <c r="E275" s="53"/>
-      <c r="F275" s="53"/>
-      <c r="G275" s="54"/>
+      <c r="D275" s="83"/>
+      <c r="E275" s="83"/>
+      <c r="F275" s="83"/>
+      <c r="G275" s="84"/>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="8">
         <v>1</v>
       </c>
-      <c r="C276" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D276" s="106"/>
-      <c r="E276" s="106"/>
-      <c r="F276" s="106"/>
-      <c r="G276" s="107"/>
+      <c r="C276" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D276" s="86"/>
+      <c r="E276" s="86"/>
+      <c r="F276" s="86"/>
+      <c r="G276" s="87"/>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
@@ -4091,139 +4088,139 @@
       <c r="B278" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="56" t="s">
+      <c r="C278" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="89"/>
+      <c r="E278" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D278" s="99"/>
-      <c r="E278" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F278" s="97"/>
-      <c r="G278" s="98"/>
+      <c r="F278" s="91"/>
+      <c r="G278" s="92"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="10">
         <v>1</v>
       </c>
-      <c r="C279" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D279" s="113"/>
-      <c r="E279" s="63">
+      <c r="C279" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D279" s="65"/>
+      <c r="E279" s="66">
         <v>112</v>
       </c>
-      <c r="F279" s="116"/>
-      <c r="G279" s="117"/>
+      <c r="F279" s="67"/>
+      <c r="G279" s="68"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C281" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D281" s="68"/>
-      <c r="E281" s="68"/>
-      <c r="F281" s="68"/>
-      <c r="G281" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C281" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D281" s="70"/>
+      <c r="E281" s="70"/>
+      <c r="F281" s="70"/>
+      <c r="G281" s="71"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D283" s="14" t="s">
+      <c r="E283" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E283" s="15" t="s">
+      <c r="F283" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F283" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G283" s="89"/>
+      <c r="G283" s="73"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="17">
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F284" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G284" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F284" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G284" s="75"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="18">
         <v>2</v>
       </c>
       <c r="C285" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D285" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E285" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F285" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G285" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F285" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G285" s="75"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="18">
         <v>3</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F286" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G286" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F286" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G286" s="75"/>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B289" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C289" s="77"/>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="77"/>
-      <c r="G289" s="78"/>
+      <c r="B289" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C289" s="94"/>
+      <c r="D289" s="94"/>
+      <c r="E289" s="94"/>
+      <c r="F289" s="94"/>
+      <c r="G289" s="95"/>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E291" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="F291" s="119"/>
-      <c r="G291" s="120"/>
+      <c r="E291" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F291" s="77"/>
+      <c r="G291" s="78"/>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
@@ -4243,13 +4240,13 @@
       <c r="B294" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C294" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D294" s="109"/>
-      <c r="E294" s="109"/>
-      <c r="F294" s="109"/>
-      <c r="G294" s="110"/>
+      <c r="C294" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D294" s="80"/>
+      <c r="E294" s="80"/>
+      <c r="F294" s="80"/>
+      <c r="G294" s="81"/>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="19" t="s">
@@ -4264,32 +4261,32 @@
         <v>11</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="52" t="s">
+      <c r="C298" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D298" s="53"/>
-      <c r="E298" s="53"/>
-      <c r="F298" s="53"/>
-      <c r="G298" s="54"/>
+      <c r="D298" s="83"/>
+      <c r="E298" s="83"/>
+      <c r="F298" s="83"/>
+      <c r="G298" s="84"/>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="8">
         <v>1</v>
       </c>
-      <c r="C299" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D299" s="106"/>
-      <c r="E299" s="106"/>
-      <c r="F299" s="106"/>
-      <c r="G299" s="107"/>
+      <c r="C299" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D299" s="86"/>
+      <c r="E299" s="86"/>
+      <c r="F299" s="86"/>
+      <c r="G299" s="87"/>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="5"/>
@@ -4303,139 +4300,139 @@
       <c r="B301" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C301" s="56" t="s">
+      <c r="C301" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" s="89"/>
+      <c r="E301" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D301" s="99"/>
-      <c r="E301" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F301" s="97"/>
-      <c r="G301" s="98"/>
+      <c r="F301" s="91"/>
+      <c r="G301" s="92"/>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="10">
         <v>1</v>
       </c>
-      <c r="C302" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D302" s="113"/>
-      <c r="E302" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F302" s="116"/>
-      <c r="G302" s="117"/>
+      <c r="C302" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D302" s="65"/>
+      <c r="E302" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F302" s="67"/>
+      <c r="G302" s="68"/>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C304" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D304" s="68"/>
-      <c r="E304" s="68"/>
-      <c r="F304" s="68"/>
-      <c r="G304" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C304" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D304" s="70"/>
+      <c r="E304" s="70"/>
+      <c r="F304" s="70"/>
+      <c r="G304" s="71"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D306" s="14" t="s">
+      <c r="E306" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E306" s="15" t="s">
+      <c r="F306" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F306" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G306" s="89"/>
+      <c r="G306" s="73"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="17">
         <v>1</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F307" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G307" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F307" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G307" s="75"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="18">
         <v>2</v>
       </c>
       <c r="C308" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D308" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E308" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F308" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G308" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F308" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G308" s="75"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="18">
         <v>3</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F309" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G309" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F309" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G309" s="75"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B312" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="C312" s="77"/>
-      <c r="D312" s="77"/>
-      <c r="E312" s="77"/>
-      <c r="F312" s="77"/>
-      <c r="G312" s="78"/>
+      <c r="B312" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C312" s="94"/>
+      <c r="D312" s="94"/>
+      <c r="E312" s="94"/>
+      <c r="F312" s="94"/>
+      <c r="G312" s="95"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E314" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="F314" s="119"/>
-      <c r="G314" s="120"/>
+      <c r="E314" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F314" s="77"/>
+      <c r="G314" s="78"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
@@ -4455,13 +4452,13 @@
       <c r="B317" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C317" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D317" s="109"/>
-      <c r="E317" s="109"/>
-      <c r="F317" s="109"/>
-      <c r="G317" s="110"/>
+      <c r="C317" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D317" s="80"/>
+      <c r="E317" s="80"/>
+      <c r="F317" s="80"/>
+      <c r="G317" s="81"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="19" t="s">
@@ -4476,32 +4473,32 @@
         <v>11</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C321" s="52" t="s">
+      <c r="C321" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D321" s="53"/>
-      <c r="E321" s="53"/>
-      <c r="F321" s="53"/>
-      <c r="G321" s="54"/>
+      <c r="D321" s="83"/>
+      <c r="E321" s="83"/>
+      <c r="F321" s="83"/>
+      <c r="G321" s="84"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="8">
         <v>1</v>
       </c>
-      <c r="C322" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D322" s="106"/>
-      <c r="E322" s="106"/>
-      <c r="F322" s="106"/>
-      <c r="G322" s="107"/>
+      <c r="C322" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D322" s="86"/>
+      <c r="E322" s="86"/>
+      <c r="F322" s="86"/>
+      <c r="G322" s="87"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
@@ -4515,139 +4512,139 @@
       <c r="B324" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C324" s="56" t="s">
+      <c r="C324" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="89"/>
+      <c r="E324" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D324" s="99"/>
-      <c r="E324" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F324" s="97"/>
-      <c r="G324" s="98"/>
+      <c r="F324" s="91"/>
+      <c r="G324" s="92"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="10">
         <v>1</v>
       </c>
-      <c r="C325" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D325" s="113"/>
-      <c r="E325" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="F325" s="116"/>
-      <c r="G325" s="117"/>
+      <c r="C325" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D325" s="65"/>
+      <c r="E325" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F325" s="67"/>
+      <c r="G325" s="68"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D327" s="68"/>
-      <c r="E327" s="68"/>
-      <c r="F327" s="68"/>
-      <c r="G327" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C327" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D327" s="70"/>
+      <c r="E327" s="70"/>
+      <c r="F327" s="70"/>
+      <c r="G327" s="71"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C329" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C329" s="15" t="s">
+      <c r="D329" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="E329" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E329" s="15" t="s">
+      <c r="F329" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F329" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G329" s="89"/>
+      <c r="G329" s="73"/>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="17">
         <v>1</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F330" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G330" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F330" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G330" s="75"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="18">
         <v>2</v>
       </c>
       <c r="C331" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D331" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E331" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F331" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G331" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F331" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G331" s="75"/>
     </row>
     <row r="332" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B332" s="22">
         <v>3</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D332" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E332" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F332" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" s="63"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E332" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F332" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G332" s="61"/>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B335" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C335" s="77"/>
-      <c r="D335" s="77"/>
-      <c r="E335" s="77"/>
-      <c r="F335" s="77"/>
-      <c r="G335" s="78"/>
+      <c r="C335" s="94"/>
+      <c r="D335" s="94"/>
+      <c r="E335" s="94"/>
+      <c r="F335" s="94"/>
+      <c r="G335" s="95"/>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E337" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="F337" s="119"/>
-      <c r="G337" s="120"/>
+      <c r="E337" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F337" s="77"/>
+      <c r="G337" s="78"/>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
@@ -4667,13 +4664,13 @@
       <c r="B340" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C340" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D340" s="109"/>
-      <c r="E340" s="109"/>
-      <c r="F340" s="109"/>
-      <c r="G340" s="110"/>
+      <c r="C340" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D340" s="80"/>
+      <c r="E340" s="80"/>
+      <c r="F340" s="80"/>
+      <c r="G340" s="81"/>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="19" t="s">
@@ -4688,32 +4685,32 @@
         <v>11</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C344" s="52" t="s">
+      <c r="C344" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D344" s="53"/>
-      <c r="E344" s="53"/>
-      <c r="F344" s="53"/>
-      <c r="G344" s="54"/>
+      <c r="D344" s="83"/>
+      <c r="E344" s="83"/>
+      <c r="F344" s="83"/>
+      <c r="G344" s="84"/>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="8">
         <v>1</v>
       </c>
-      <c r="C345" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" s="106"/>
-      <c r="E345" s="106"/>
-      <c r="F345" s="106"/>
-      <c r="G345" s="107"/>
+      <c r="C345" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D345" s="86"/>
+      <c r="E345" s="86"/>
+      <c r="F345" s="86"/>
+      <c r="G345" s="87"/>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
@@ -4727,149 +4724,149 @@
       <c r="B347" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C347" s="56" t="s">
+      <c r="C347" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="89"/>
+      <c r="E347" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D347" s="99"/>
-      <c r="E347" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F347" s="97"/>
-      <c r="G347" s="98"/>
+      <c r="F347" s="91"/>
+      <c r="G347" s="92"/>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="10">
         <v>1</v>
       </c>
-      <c r="C348" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D348" s="113"/>
-      <c r="E348" s="63">
+      <c r="C348" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D348" s="65"/>
+      <c r="E348" s="66">
         <v>1124</v>
       </c>
-      <c r="F348" s="116"/>
-      <c r="G348" s="117"/>
+      <c r="F348" s="67"/>
+      <c r="G348" s="68"/>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C350" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D350" s="68"/>
-      <c r="E350" s="68"/>
-      <c r="F350" s="68"/>
-      <c r="G350" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C350" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D350" s="70"/>
+      <c r="E350" s="70"/>
+      <c r="F350" s="70"/>
+      <c r="G350" s="71"/>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C352" s="15" t="s">
+      <c r="D352" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D352" s="14" t="s">
+      <c r="E352" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E352" s="15" t="s">
+      <c r="F352" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F352" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G352" s="89"/>
+      <c r="G352" s="73"/>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="17">
         <v>1</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F353" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G353" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F353" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G353" s="75"/>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="18">
         <v>2</v>
       </c>
       <c r="C354" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D354" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D354" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E354" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F354" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G354" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F354" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G354" s="75"/>
     </row>
     <row r="355" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B355" s="22">
         <v>3</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D355" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E355" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F355" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G355" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="F355" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G355" s="63"/>
     </row>
     <row r="358" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B358" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="C358" s="86"/>
-      <c r="D358" s="86"/>
-      <c r="E358" s="86"/>
-      <c r="F358" s="86"/>
-      <c r="G358" s="87"/>
+      <c r="B358" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C358" s="47"/>
+      <c r="D358" s="47"/>
+      <c r="E358" s="47"/>
+      <c r="F358" s="47"/>
+      <c r="G358" s="48"/>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B360" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C360" s="83"/>
-      <c r="D360" s="83"/>
-      <c r="E360" s="83"/>
-      <c r="F360" s="83"/>
-      <c r="G360" s="84"/>
+      <c r="B360" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C360" s="44"/>
+      <c r="D360" s="44"/>
+      <c r="E360" s="44"/>
+      <c r="F360" s="44"/>
+      <c r="G360" s="45"/>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E362" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="F362" s="122"/>
-      <c r="G362" s="123"/>
+      <c r="E362" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F362" s="50"/>
+      <c r="G362" s="51"/>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
@@ -4889,13 +4886,13 @@
       <c r="B365" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C365" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D365" s="122"/>
-      <c r="E365" s="122"/>
-      <c r="F365" s="122"/>
-      <c r="G365" s="123"/>
+      <c r="C365" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D365" s="50"/>
+      <c r="E365" s="50"/>
+      <c r="F365" s="50"/>
+      <c r="G365" s="51"/>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="19" t="s">
@@ -4910,7 +4907,7 @@
         <v>11</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
@@ -4930,12 +4927,12 @@
         <v>1</v>
       </c>
       <c r="C370" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D370" s="124"/>
-      <c r="E370" s="124"/>
-      <c r="F370" s="124"/>
-      <c r="G370" s="125"/>
+        <v>150</v>
+      </c>
+      <c r="D370" s="52"/>
+      <c r="E370" s="52"/>
+      <c r="F370" s="52"/>
+      <c r="G370" s="53"/>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
@@ -4950,35 +4947,35 @@
         <v>12</v>
       </c>
       <c r="C372" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" s="54"/>
+      <c r="E372" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D372" s="126"/>
-      <c r="E372" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F372" s="127"/>
-      <c r="G372" s="128"/>
+      <c r="F372" s="55"/>
+      <c r="G372" s="56"/>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="10">
         <v>1</v>
       </c>
       <c r="C373" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D373" s="129"/>
+        <v>104</v>
+      </c>
+      <c r="D373" s="57"/>
       <c r="E373" s="41">
         <v>1125</v>
       </c>
-      <c r="F373" s="130"/>
-      <c r="G373" s="131"/>
+      <c r="F373" s="58"/>
+      <c r="G373" s="59"/>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C375" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D375" s="29"/>
       <c r="E375" s="29"/>
@@ -4987,37 +4984,37 @@
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C377" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C377" s="31" t="s">
+      <c r="D377" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D377" s="14" t="s">
+      <c r="E377" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E377" s="31" t="s">
+      <c r="F377" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F377" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G377" s="133"/>
+      <c r="G377" s="61"/>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="17">
         <v>1</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F378" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G378" s="33"/>
     </row>
@@ -5026,16 +5023,16 @@
         <v>2</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F379" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G379" s="33"/>
     </row>
@@ -5044,44 +5041,44 @@
         <v>3</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F380" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G380" s="33"/>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B383" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C383" s="83"/>
-      <c r="D383" s="83"/>
-      <c r="E383" s="83"/>
-      <c r="F383" s="83"/>
-      <c r="G383" s="84"/>
+      <c r="B383" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C383" s="44"/>
+      <c r="D383" s="44"/>
+      <c r="E383" s="44"/>
+      <c r="F383" s="44"/>
+      <c r="G383" s="45"/>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E385" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="F385" s="122"/>
-      <c r="G385" s="123"/>
+      <c r="E385" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F385" s="50"/>
+      <c r="G385" s="51"/>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
@@ -5101,13 +5098,13 @@
       <c r="B388" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C388" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D388" s="122"/>
-      <c r="E388" s="122"/>
-      <c r="F388" s="122"/>
-      <c r="G388" s="123"/>
+      <c r="C388" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D388" s="50"/>
+      <c r="E388" s="50"/>
+      <c r="F388" s="50"/>
+      <c r="G388" s="51"/>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="19" t="s">
@@ -5122,7 +5119,7 @@
         <v>11</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
@@ -5142,12 +5139,12 @@
         <v>1</v>
       </c>
       <c r="C393" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D393" s="124"/>
-      <c r="E393" s="124"/>
-      <c r="F393" s="124"/>
-      <c r="G393" s="125"/>
+        <v>150</v>
+      </c>
+      <c r="D393" s="52"/>
+      <c r="E393" s="52"/>
+      <c r="F393" s="52"/>
+      <c r="G393" s="53"/>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
@@ -5162,35 +5159,35 @@
         <v>12</v>
       </c>
       <c r="C395" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="54"/>
+      <c r="E395" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D395" s="126"/>
-      <c r="E395" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F395" s="127"/>
-      <c r="G395" s="128"/>
+      <c r="F395" s="55"/>
+      <c r="G395" s="56"/>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="10">
         <v>1</v>
       </c>
       <c r="C396" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D396" s="129"/>
+        <v>104</v>
+      </c>
+      <c r="D396" s="57"/>
       <c r="E396" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F396" s="130"/>
-      <c r="G396" s="131"/>
+        <v>40</v>
+      </c>
+      <c r="F396" s="58"/>
+      <c r="G396" s="59"/>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C398" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="29"/>
@@ -5199,37 +5196,37 @@
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C400" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C400" s="31" t="s">
+      <c r="D400" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D400" s="14" t="s">
+      <c r="E400" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E400" s="31" t="s">
+      <c r="F400" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F400" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G400" s="133"/>
+      <c r="G400" s="61"/>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="17">
         <v>1</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F401" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G401" s="33"/>
     </row>
@@ -5238,16 +5235,16 @@
         <v>2</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F402" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G402" s="33"/>
     </row>
@@ -5256,44 +5253,44 @@
         <v>3</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F403" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G403" s="33"/>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B406" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C406" s="83"/>
-      <c r="D406" s="83"/>
-      <c r="E406" s="83"/>
-      <c r="F406" s="83"/>
-      <c r="G406" s="84"/>
+      <c r="B406" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C406" s="44"/>
+      <c r="D406" s="44"/>
+      <c r="E406" s="44"/>
+      <c r="F406" s="44"/>
+      <c r="G406" s="45"/>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E408" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="F408" s="122"/>
-      <c r="G408" s="123"/>
+      <c r="E408" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F408" s="50"/>
+      <c r="G408" s="51"/>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
@@ -5313,13 +5310,13 @@
       <c r="B411" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C411" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D411" s="109"/>
-      <c r="E411" s="109"/>
-      <c r="F411" s="109"/>
-      <c r="G411" s="110"/>
+      <c r="C411" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D411" s="80"/>
+      <c r="E411" s="80"/>
+      <c r="F411" s="80"/>
+      <c r="G411" s="81"/>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="19" t="s">
@@ -5334,32 +5331,32 @@
         <v>11</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="52" t="s">
+      <c r="C415" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D415" s="53"/>
-      <c r="E415" s="53"/>
-      <c r="F415" s="53"/>
-      <c r="G415" s="54"/>
+      <c r="D415" s="83"/>
+      <c r="E415" s="83"/>
+      <c r="F415" s="83"/>
+      <c r="G415" s="84"/>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="8">
         <v>1</v>
       </c>
-      <c r="C416" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D416" s="106"/>
-      <c r="E416" s="106"/>
-      <c r="F416" s="106"/>
-      <c r="G416" s="107"/>
+      <c r="C416" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D416" s="86"/>
+      <c r="E416" s="86"/>
+      <c r="F416" s="86"/>
+      <c r="G416" s="87"/>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
@@ -5373,139 +5370,139 @@
       <c r="B418" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C418" s="56" t="s">
+      <c r="C418" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D418" s="89"/>
+      <c r="E418" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D418" s="99"/>
-      <c r="E418" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F418" s="97"/>
-      <c r="G418" s="98"/>
+      <c r="F418" s="91"/>
+      <c r="G418" s="92"/>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="10">
         <v>1</v>
       </c>
-      <c r="C419" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D419" s="113"/>
-      <c r="E419" s="63">
+      <c r="C419" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D419" s="65"/>
+      <c r="E419" s="66">
         <v>1119</v>
       </c>
-      <c r="F419" s="116"/>
-      <c r="G419" s="117"/>
+      <c r="F419" s="67"/>
+      <c r="G419" s="68"/>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C421" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="D421" s="68"/>
-      <c r="E421" s="68"/>
-      <c r="F421" s="68"/>
-      <c r="G421" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C421" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D421" s="70"/>
+      <c r="E421" s="70"/>
+      <c r="F421" s="70"/>
+      <c r="G421" s="71"/>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C423" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C423" s="31" t="s">
+      <c r="D423" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D423" s="14" t="s">
+      <c r="E423" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E423" s="31" t="s">
+      <c r="F423" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F423" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G423" s="89"/>
+      <c r="G423" s="73"/>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="17">
         <v>1</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F424" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G424" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F424" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G424" s="75"/>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="42">
         <v>2</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F425" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G425" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F425" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G425" s="75"/>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="22">
         <v>3</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D426" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F426" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G426" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="F426" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G426" s="63"/>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B429" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="C429" s="77"/>
-      <c r="D429" s="77"/>
-      <c r="E429" s="77"/>
-      <c r="F429" s="77"/>
-      <c r="G429" s="78"/>
+      <c r="B429" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C429" s="94"/>
+      <c r="D429" s="94"/>
+      <c r="E429" s="94"/>
+      <c r="F429" s="94"/>
+      <c r="G429" s="95"/>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E431" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="F431" s="109"/>
-      <c r="G431" s="110"/>
+      <c r="E431" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F431" s="80"/>
+      <c r="G431" s="81"/>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
@@ -5525,13 +5522,13 @@
       <c r="B434" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C434" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D434" s="109"/>
-      <c r="E434" s="109"/>
-      <c r="F434" s="109"/>
-      <c r="G434" s="110"/>
+      <c r="C434" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D434" s="80"/>
+      <c r="E434" s="80"/>
+      <c r="F434" s="80"/>
+      <c r="G434" s="81"/>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="19" t="s">
@@ -5546,32 +5543,32 @@
         <v>11</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C438" s="52" t="s">
+      <c r="C438" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D438" s="53"/>
-      <c r="E438" s="53"/>
-      <c r="F438" s="53"/>
-      <c r="G438" s="54"/>
+      <c r="D438" s="83"/>
+      <c r="E438" s="83"/>
+      <c r="F438" s="83"/>
+      <c r="G438" s="84"/>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="8">
         <v>1</v>
       </c>
-      <c r="C439" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D439" s="106"/>
-      <c r="E439" s="106"/>
-      <c r="F439" s="106"/>
-      <c r="G439" s="107"/>
+      <c r="C439" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D439" s="86"/>
+      <c r="E439" s="86"/>
+      <c r="F439" s="86"/>
+      <c r="G439" s="87"/>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="5"/>
@@ -5585,139 +5582,139 @@
       <c r="B441" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C441" s="56" t="s">
+      <c r="C441" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="89"/>
+      <c r="E441" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D441" s="99"/>
-      <c r="E441" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F441" s="97"/>
-      <c r="G441" s="98"/>
+      <c r="F441" s="91"/>
+      <c r="G441" s="92"/>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="10">
         <v>1</v>
       </c>
-      <c r="C442" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D442" s="113"/>
-      <c r="E442" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="F442" s="114"/>
-      <c r="G442" s="115"/>
+      <c r="C442" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D442" s="65"/>
+      <c r="E442" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="F442" s="107"/>
+      <c r="G442" s="108"/>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C444" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D444" s="68"/>
-      <c r="E444" s="68"/>
-      <c r="F444" s="68"/>
-      <c r="G444" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C444" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D444" s="70"/>
+      <c r="E444" s="70"/>
+      <c r="F444" s="70"/>
+      <c r="G444" s="71"/>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C446" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C446" s="31" t="s">
+      <c r="D446" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D446" s="14" t="s">
+      <c r="E446" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E446" s="31" t="s">
+      <c r="F446" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F446" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G446" s="89"/>
+      <c r="G446" s="73"/>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="17">
         <v>1</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D447" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E447" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F447" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G447" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F447" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G447" s="75"/>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="42">
         <v>2</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E448" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F448" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G448" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F448" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G448" s="75"/>
     </row>
     <row r="449" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B449" s="22">
         <v>3</v>
       </c>
       <c r="C449" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D449" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E449" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F449" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G449" s="63"/>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B452" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="E449" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F449" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G449" s="61"/>
-    </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B452" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C452" s="77"/>
-      <c r="D452" s="77"/>
-      <c r="E452" s="77"/>
-      <c r="F452" s="77"/>
-      <c r="G452" s="78"/>
+      <c r="C452" s="94"/>
+      <c r="D452" s="94"/>
+      <c r="E452" s="94"/>
+      <c r="F452" s="94"/>
+      <c r="G452" s="95"/>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E454" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="F454" s="109"/>
-      <c r="G454" s="110"/>
+      <c r="E454" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F454" s="80"/>
+      <c r="G454" s="81"/>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" s="2" t="s">
@@ -5737,13 +5734,13 @@
       <c r="B457" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C457" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D457" s="109"/>
-      <c r="E457" s="109"/>
-      <c r="F457" s="109"/>
-      <c r="G457" s="110"/>
+      <c r="C457" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D457" s="80"/>
+      <c r="E457" s="80"/>
+      <c r="F457" s="80"/>
+      <c r="G457" s="81"/>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="19" t="s">
@@ -5758,32 +5755,32 @@
         <v>11</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C461" s="52" t="s">
+      <c r="C461" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D461" s="53"/>
-      <c r="E461" s="53"/>
-      <c r="F461" s="53"/>
-      <c r="G461" s="54"/>
+      <c r="D461" s="83"/>
+      <c r="E461" s="83"/>
+      <c r="F461" s="83"/>
+      <c r="G461" s="84"/>
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" s="8">
         <v>1</v>
       </c>
-      <c r="C462" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D462" s="106"/>
-      <c r="E462" s="106"/>
-      <c r="F462" s="106"/>
-      <c r="G462" s="107"/>
+      <c r="C462" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D462" s="86"/>
+      <c r="E462" s="86"/>
+      <c r="F462" s="86"/>
+      <c r="G462" s="87"/>
     </row>
     <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" s="5"/>
@@ -5797,149 +5794,149 @@
       <c r="B464" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C464" s="56" t="s">
+      <c r="C464" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="89"/>
+      <c r="E464" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D464" s="99"/>
-      <c r="E464" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F464" s="97"/>
-      <c r="G464" s="98"/>
+      <c r="F464" s="91"/>
+      <c r="G464" s="92"/>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="10">
         <v>1</v>
       </c>
-      <c r="C465" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D465" s="113"/>
-      <c r="E465" s="59">
+      <c r="C465" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D465" s="65"/>
+      <c r="E465" s="109">
         <v>45973</v>
       </c>
-      <c r="F465" s="111"/>
-      <c r="G465" s="112"/>
+      <c r="F465" s="110"/>
+      <c r="G465" s="111"/>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C467" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D467" s="68"/>
-      <c r="E467" s="68"/>
-      <c r="F467" s="68"/>
-      <c r="G467" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C467" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D467" s="70"/>
+      <c r="E467" s="70"/>
+      <c r="F467" s="70"/>
+      <c r="G467" s="71"/>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C469" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C469" s="31" t="s">
+      <c r="D469" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D469" s="14" t="s">
+      <c r="E469" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E469" s="31" t="s">
+      <c r="F469" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F469" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G469" s="89"/>
+      <c r="G469" s="73"/>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" s="17">
         <v>1</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D470" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E470" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F470" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G470" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F470" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G470" s="75"/>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="42">
         <v>2</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E471" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F471" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G471" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F471" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G471" s="75"/>
     </row>
     <row r="472" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B472" s="22">
         <v>3</v>
       </c>
       <c r="C472" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D472" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E472" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F472" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G472" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="F472" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G472" s="63"/>
     </row>
     <row r="475" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B475" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="C475" s="80"/>
-      <c r="D475" s="80"/>
-      <c r="E475" s="80"/>
-      <c r="F475" s="80"/>
-      <c r="G475" s="81"/>
+      <c r="B475" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="C475" s="97"/>
+      <c r="D475" s="97"/>
+      <c r="E475" s="97"/>
+      <c r="F475" s="97"/>
+      <c r="G475" s="98"/>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B477" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C477" s="77"/>
-      <c r="D477" s="77"/>
-      <c r="E477" s="77"/>
-      <c r="F477" s="77"/>
-      <c r="G477" s="78"/>
+      <c r="B477" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C477" s="94"/>
+      <c r="D477" s="94"/>
+      <c r="E477" s="94"/>
+      <c r="F477" s="94"/>
+      <c r="G477" s="95"/>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E479" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="F479" s="109"/>
-      <c r="G479" s="110"/>
+      <c r="E479" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F479" s="80"/>
+      <c r="G479" s="81"/>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
@@ -5959,13 +5956,13 @@
       <c r="B482" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C482" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="D482" s="109"/>
-      <c r="E482" s="109"/>
-      <c r="F482" s="109"/>
-      <c r="G482" s="110"/>
+      <c r="C482" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D482" s="80"/>
+      <c r="E482" s="80"/>
+      <c r="F482" s="80"/>
+      <c r="G482" s="81"/>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="19" t="s">
@@ -5980,32 +5977,32 @@
         <v>11</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B486" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C486" s="52" t="s">
+      <c r="C486" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D486" s="53"/>
-      <c r="E486" s="53"/>
-      <c r="F486" s="53"/>
-      <c r="G486" s="54"/>
+      <c r="D486" s="83"/>
+      <c r="E486" s="83"/>
+      <c r="F486" s="83"/>
+      <c r="G486" s="84"/>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="8">
         <v>1</v>
       </c>
-      <c r="C487" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D487" s="106"/>
-      <c r="E487" s="106"/>
-      <c r="F487" s="106"/>
-      <c r="G487" s="107"/>
+      <c r="C487" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D487" s="86"/>
+      <c r="E487" s="86"/>
+      <c r="F487" s="86"/>
+      <c r="G487" s="87"/>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="5"/>
@@ -6019,93 +6016,93 @@
       <c r="B489" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C489" s="56" t="s">
+      <c r="C489" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D489" s="89"/>
+      <c r="E489" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D489" s="99"/>
-      <c r="E489" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F489" s="97"/>
-      <c r="G489" s="98"/>
+      <c r="F489" s="91"/>
+      <c r="G489" s="92"/>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B490" s="50">
+      <c r="B490" s="122">
         <v>1</v>
       </c>
-      <c r="C490" s="65" t="s">
+      <c r="C490" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D490" s="113"/>
+      <c r="E490" s="114">
+        <v>100000</v>
+      </c>
+      <c r="F490" s="115"/>
+      <c r="G490" s="116"/>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B491" s="123"/>
+      <c r="C491" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D490" s="96"/>
-      <c r="E490" s="66">
+      <c r="D491" s="121"/>
+      <c r="E491" s="117">
+        <v>20000</v>
+      </c>
+      <c r="F491" s="118"/>
+      <c r="G491" s="119"/>
+    </row>
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B492" s="124">
+        <v>2</v>
+      </c>
+      <c r="C492" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D492" s="126"/>
+      <c r="E492" s="127">
         <v>100000</v>
       </c>
-      <c r="F490" s="94"/>
-      <c r="G490" s="95"/>
-    </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B491" s="51"/>
-      <c r="C491" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D491" s="49"/>
-      <c r="E491" s="45">
-        <v>20000</v>
-      </c>
-      <c r="F491" s="46"/>
-      <c r="G491" s="47"/>
-    </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B492" s="90">
-        <v>2</v>
-      </c>
-      <c r="C492" s="104" t="s">
+      <c r="F492" s="118"/>
+      <c r="G492" s="128"/>
+    </row>
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B493" s="123"/>
+      <c r="C493" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="D492" s="105"/>
-      <c r="E492" s="102">
+      <c r="D493" s="130"/>
+      <c r="E493" s="131">
+        <v>50000</v>
+      </c>
+      <c r="F493" s="132"/>
+      <c r="G493" s="133"/>
+    </row>
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B494" s="124">
+        <v>3</v>
+      </c>
+      <c r="C494" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D494" s="113"/>
+      <c r="E494" s="114">
         <v>100000</v>
       </c>
-      <c r="F492" s="46"/>
-      <c r="G492" s="103"/>
-    </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B493" s="51"/>
-      <c r="C493" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="D493" s="101"/>
-      <c r="E493" s="91">
-        <v>50000</v>
-      </c>
-      <c r="F493" s="92"/>
-      <c r="G493" s="93"/>
-    </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B494" s="90">
-        <v>3</v>
-      </c>
-      <c r="C494" s="65" t="s">
+      <c r="F494" s="115"/>
+      <c r="G494" s="116"/>
+    </row>
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B495" s="123"/>
+      <c r="C495" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D494" s="96"/>
-      <c r="E494" s="66">
-        <v>100000</v>
-      </c>
-      <c r="F494" s="94"/>
-      <c r="G494" s="95"/>
-    </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B495" s="51"/>
-      <c r="C495" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D495" s="49"/>
-      <c r="E495" s="45">
+      <c r="D495" s="121"/>
+      <c r="E495" s="117">
         <v>130000</v>
       </c>
-      <c r="F495" s="46"/>
-      <c r="G495" s="47"/>
+      <c r="F495" s="118"/>
+      <c r="G495" s="119"/>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="26"/>
@@ -6117,229 +6114,213 @@
     </row>
     <row r="497" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B497" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C497" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="D497" s="68"/>
-      <c r="E497" s="68"/>
-      <c r="F497" s="68"/>
-      <c r="G497" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="C497" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D497" s="70"/>
+      <c r="E497" s="70"/>
+      <c r="F497" s="70"/>
+      <c r="G497" s="71"/>
     </row>
     <row r="499" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B499" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C499" s="31" t="s">
+      <c r="D499" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D499" s="14" t="s">
+      <c r="E499" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E499" s="31" t="s">
+      <c r="F499" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F499" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G499" s="89"/>
+      <c r="G499" s="73"/>
     </row>
     <row r="500" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B500" s="17">
         <v>1</v>
       </c>
       <c r="C500" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D500" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D500" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="E500" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F500" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G500" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F500" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G500" s="75"/>
     </row>
     <row r="501" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B501" s="42">
         <v>2</v>
       </c>
       <c r="C501" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D501" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D501" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="E501" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F501" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G501" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F501" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G501" s="75"/>
     </row>
     <row r="502" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B502" s="18">
         <v>3</v>
       </c>
       <c r="C502" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D502" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D502" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="E502" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F502" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G502" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="F502" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G502" s="75"/>
     </row>
     <row r="686" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="284">
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="E254:G254"/>
-    <mergeCell ref="C256:G256"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="E243:G243"/>
-    <mergeCell ref="C246:G246"/>
-    <mergeCell ref="C250:G250"/>
-    <mergeCell ref="C251:G251"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="E253:G253"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="B241:G241"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="C228:G228"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="E230:G230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="B218:G218"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="C205:G205"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C204:G204"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="C185:G185"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="C175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="C180:G180"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="F499:G499"/>
+    <mergeCell ref="F500:G500"/>
+    <mergeCell ref="F501:G501"/>
+    <mergeCell ref="F502:G502"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="B492:B493"/>
+    <mergeCell ref="C492:D492"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="C493:D493"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="B494:B495"/>
+    <mergeCell ref="C495:D495"/>
+    <mergeCell ref="E495:G495"/>
+    <mergeCell ref="C486:G486"/>
+    <mergeCell ref="C487:G487"/>
+    <mergeCell ref="C489:D489"/>
+    <mergeCell ref="E489:G489"/>
+    <mergeCell ref="C490:D490"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="C497:G497"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="C494:D494"/>
+    <mergeCell ref="C467:G467"/>
+    <mergeCell ref="F469:G469"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="B475:G475"/>
+    <mergeCell ref="B477:G477"/>
+    <mergeCell ref="E479:G479"/>
+    <mergeCell ref="C482:G482"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="B452:G452"/>
+    <mergeCell ref="E454:G454"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C461:G461"/>
+    <mergeCell ref="C462:G462"/>
+    <mergeCell ref="C464:D464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="C465:D465"/>
+    <mergeCell ref="E465:G465"/>
+    <mergeCell ref="C439:G439"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="E441:G441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="E442:G442"/>
+    <mergeCell ref="C444:G444"/>
+    <mergeCell ref="F446:G446"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="C421:G421"/>
+    <mergeCell ref="F423:G423"/>
+    <mergeCell ref="F424:G424"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="B429:G429"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="C434:G434"/>
+    <mergeCell ref="C438:G438"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="C411:G411"/>
+    <mergeCell ref="C415:G415"/>
+    <mergeCell ref="C416:G416"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="E418:G418"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="E419:G419"/>
+    <mergeCell ref="F354:G354"/>
+    <mergeCell ref="F355:G355"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="B335:G335"/>
+    <mergeCell ref="C317:G317"/>
+    <mergeCell ref="C321:G321"/>
+    <mergeCell ref="C322:G322"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="E324:G324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="E325:G325"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="E337:G337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C344:G344"/>
+    <mergeCell ref="C345:G345"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="E347:G347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="E348:G348"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="C304:G304"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="E314:G314"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="B289:G289"/>
+    <mergeCell ref="E291:G291"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="E301:G301"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="C275:G275"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="E278:G278"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="E279:G279"/>
+    <mergeCell ref="C281:G281"/>
+    <mergeCell ref="F283:G283"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="E8:G8"/>
@@ -6364,128 +6345,144 @@
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="C275:G275"/>
-    <mergeCell ref="C276:G276"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="E278:G278"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="E279:G279"/>
-    <mergeCell ref="C281:G281"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="B289:G289"/>
-    <mergeCell ref="E291:G291"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="E301:G301"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="C304:G304"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="B312:G312"/>
-    <mergeCell ref="E314:G314"/>
-    <mergeCell ref="F354:G354"/>
-    <mergeCell ref="F355:G355"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="B335:G335"/>
-    <mergeCell ref="C317:G317"/>
-    <mergeCell ref="C321:G321"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="E324:G324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="E325:G325"/>
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="E337:G337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C344:G344"/>
-    <mergeCell ref="C345:G345"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="E347:G347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="E348:G348"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="C411:G411"/>
-    <mergeCell ref="C415:G415"/>
-    <mergeCell ref="C416:G416"/>
-    <mergeCell ref="C418:D418"/>
-    <mergeCell ref="E418:G418"/>
-    <mergeCell ref="C419:D419"/>
-    <mergeCell ref="E419:G419"/>
-    <mergeCell ref="C421:G421"/>
-    <mergeCell ref="F423:G423"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F425:G425"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="B429:G429"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="C434:G434"/>
-    <mergeCell ref="C438:G438"/>
-    <mergeCell ref="C439:G439"/>
-    <mergeCell ref="C441:D441"/>
-    <mergeCell ref="E441:G441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="E442:G442"/>
-    <mergeCell ref="C444:G444"/>
-    <mergeCell ref="F446:G446"/>
-    <mergeCell ref="F447:G447"/>
-    <mergeCell ref="F448:G448"/>
-    <mergeCell ref="F449:G449"/>
-    <mergeCell ref="B452:G452"/>
-    <mergeCell ref="E454:G454"/>
-    <mergeCell ref="C457:G457"/>
-    <mergeCell ref="C461:G461"/>
-    <mergeCell ref="C462:G462"/>
-    <mergeCell ref="C464:D464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="C465:D465"/>
-    <mergeCell ref="E465:G465"/>
-    <mergeCell ref="C467:G467"/>
-    <mergeCell ref="F469:G469"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="B475:G475"/>
-    <mergeCell ref="B477:G477"/>
-    <mergeCell ref="E479:G479"/>
-    <mergeCell ref="C482:G482"/>
-    <mergeCell ref="C486:G486"/>
-    <mergeCell ref="C487:G487"/>
-    <mergeCell ref="C489:D489"/>
-    <mergeCell ref="E489:G489"/>
-    <mergeCell ref="C490:D490"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="C497:G497"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="C494:D494"/>
-    <mergeCell ref="F499:G499"/>
-    <mergeCell ref="F500:G500"/>
-    <mergeCell ref="F501:G501"/>
-    <mergeCell ref="F502:G502"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="B492:B493"/>
-    <mergeCell ref="C492:D492"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="C493:D493"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="B494:B495"/>
-    <mergeCell ref="C495:D495"/>
-    <mergeCell ref="E495:G495"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="C175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="C180:G180"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="C205:G205"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="C228:G228"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="E230:G230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="E254:G254"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="E243:G243"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C251:G251"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:G253"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
